--- a/curso-completo/excel_365_do_zero_ao_avancado/9.intermediario_graficos/155.inserindo_graficos/127+-+Inserindo+Gráficos.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/9.intermediario_graficos/155.inserindo_graficos/127+-+Inserindo+Gráficos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Intermediário\Capítulo 08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\9.intermediario_graficos\155.inserindo_graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0550C192-C0BC-4C1C-AB15-63CA32979159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AF7E54-DEA1-41FD-8F4F-54D86CB7A496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{DB1B5663-54AF-489E-BEA9-77CE35020F47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{DB1B5663-54AF-489E-BEA9-77CE35020F47}"/>
   </bookViews>
   <sheets>
     <sheet name="Preços" sheetId="2" state="hidden" r:id="rId1"/>
@@ -694,6 +694,10 @@
     <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,10 +707,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -730,10 +730,2240 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Janeiro Número Vendas'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Camisa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Janeiro Número Vendas'!$B$10:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1º Semana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2º Semana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3º Semana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4º Semana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Janeiro Número Vendas'!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A44-4891-AED3-FF52CCE01AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Janeiro Número Vendas'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gravatas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Janeiro Número Vendas'!$B$10:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1º Semana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2º Semana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3º Semana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4º Semana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Janeiro Número Vendas'!$D$10:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A44-4891-AED3-FF52CCE01AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Janeiro Número Vendas'!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calças</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Janeiro Número Vendas'!$B$10:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1º Semana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2º Semana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3º Semana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4º Semana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Janeiro Número Vendas'!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A44-4891-AED3-FF52CCE01AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Janeiro Número Vendas'!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Janeiro Número Vendas'!$B$10:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1º Semana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2º Semana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3º Semana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4º Semana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Janeiro Número Vendas'!$F$10:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4A44-4891-AED3-FF52CCE01AF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="629449823"/>
+        <c:axId val="629450303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="629449823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629450303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="629450303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629449823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Janeiro Valor Vendas'!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 1º Semana </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Janeiro Valor Vendas'!$J$9:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Camisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gravatas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Calças</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Meias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Janeiro Valor Vendas'!$J$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38671.200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-274F-4B6F-A2EB-82AF320680E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Janeiro Valor Vendas'!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 2º Semana </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Janeiro Valor Vendas'!$J$9:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Camisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gravatas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Calças</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Meias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Janeiro Valor Vendas'!$J$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31291.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-274F-4B6F-A2EB-82AF320680E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Janeiro Valor Vendas'!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 3º Semana </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Janeiro Valor Vendas'!$J$9:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Camisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gravatas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Calças</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Meias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Janeiro Valor Vendas'!$J$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-274F-4B6F-A2EB-82AF320680E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Janeiro Valor Vendas'!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 4º Semana </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Janeiro Valor Vendas'!$J$9:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Camisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gravatas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Calças</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Meias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Janeiro Valor Vendas'!$J$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-274F-4B6F-A2EB-82AF320680E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="627299263"/>
+        <c:axId val="711958399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="627299263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711958399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="711958399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627299263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E722B293-CE0A-85DE-643D-8231140EAF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01DF840-A322-59DF-DD5E-83B17E6CB4F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -771,7 +3001,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -877,7 +3107,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1019,7 +3249,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1033,9 +3263,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +3273,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +3281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1059,7 +3289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1076,77 +3306,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235B45F4-61F8-4E55-8821-D875F74BF387}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:11" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+    <row r="2" spans="1:11" s="35" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
-    <row r="3" spans="1:11" s="36" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="37"/>
       <c r="E3" s="38"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +3390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +3409,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
@@ -1198,7 +3428,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
@@ -1217,7 +3447,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
@@ -1244,6 +3474,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1251,54 +3482,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300A9127-C400-4CD7-826B-317C5B432196}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:16" s="36" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H3" s="37"/>
       <c r="J3" s="38"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1306,18 +3537,18 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1325,17 +3556,17 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="25" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +3580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1373,7 +3604,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1397,7 +3628,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1421,7 +3652,7 @@
         <v>5258</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1452,6 +3683,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1463,56 +3695,56 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="43"/>
-    <col min="2" max="2" width="16.453125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="43"/>
+    <col min="1" max="1" width="8.77734375" style="40"/>
+    <col min="2" max="2" width="16.44140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="46" t="s">
+    <row r="2" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="45" t="s">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
